--- a/data2_exl.xlsx
+++ b/data2_exl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Flask scrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Git\OD Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8830D007-0687-408D-8F08-9A5EA3D505F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8A29D0-DE9E-488C-B297-6E4B1BC2E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1440" windowWidth="29040" windowHeight="15720" xr2:uid="{96B0E5EC-095D-49B5-8C4E-3BA6B05C1DC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Brand</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Acps-Oris</t>
+  </si>
+  <si>
+    <t>Active Autowerke</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347968EF-BC60-4498-9EAD-F92F62FF4864}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -802,9 +805,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
